--- a/results/mp/tinybert/corona/confidence/42/desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/desired-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,199 +40,208 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>credit</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>available</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
-    <t>.</t>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -590,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -709,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,31 +736,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>0.9661016949152542</v>
+      </c>
+      <c r="L4">
+        <v>57</v>
+      </c>
+      <c r="M4">
+        <v>57</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>11</v>
-      </c>
-      <c r="M4">
-        <v>11</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8506493506493507</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.96875</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8235294117647058</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9583333333333334</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7333333333333333</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,31 +936,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>0.8974358974358975</v>
+      </c>
+      <c r="L8">
+        <v>35</v>
+      </c>
+      <c r="M8">
+        <v>35</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>4</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8">
-        <v>0.95</v>
-      </c>
-      <c r="L8">
-        <v>38</v>
-      </c>
-      <c r="M8">
-        <v>38</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6190476190476191</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.9375</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5708154506437768</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.9230769230769231</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5172413793103449</v>
+        <v>0.2538759689922481</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>385</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.9166666666666666</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.9166666666666666</v>
+        <v>0.8828125</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,45 +1160,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>15</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.896551724137931</v>
+        <v>0.875</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1205,41 +1190,17 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="L14">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>0.3255813953488372</v>
-      </c>
-      <c r="C14">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>58</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L14">
-        <v>24</v>
-      </c>
       <c r="M14">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1255,323 +1216,251 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
+      <c r="J15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>0.8591549295774648</v>
+      </c>
+      <c r="L15">
+        <v>122</v>
+      </c>
+      <c r="M15">
+        <v>122</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>0.3</v>
-      </c>
-      <c r="C15">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>56</v>
-      </c>
-      <c r="J15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L16">
+        <v>69</v>
+      </c>
+      <c r="M16">
+        <v>69</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="L18">
+        <v>88</v>
+      </c>
+      <c r="M18">
+        <v>88</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="L19">
+        <v>42</v>
+      </c>
+      <c r="M19">
+        <v>42</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K15">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L15">
-        <v>48</v>
-      </c>
-      <c r="M15">
-        <v>48</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="K20">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="L20">
+        <v>94</v>
+      </c>
+      <c r="M20">
+        <v>94</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>0.78125</v>
+      </c>
+      <c r="L21">
+        <v>125</v>
+      </c>
+      <c r="M21">
+        <v>125</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L22">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <v>21</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L23">
+        <v>45</v>
+      </c>
+      <c r="M23">
+        <v>45</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>0.75</v>
+      </c>
+      <c r="L24">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>0.2545454545454545</v>
-      </c>
-      <c r="C16">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <v>28</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>82</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>0.88</v>
-      </c>
-      <c r="L16">
-        <v>22</v>
-      </c>
-      <c r="M16">
-        <v>22</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.25</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>30</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L17">
-        <v>44</v>
-      </c>
-      <c r="M17">
-        <v>44</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L18">
-        <v>48</v>
-      </c>
-      <c r="M18">
-        <v>48</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L19">
-        <v>43</v>
-      </c>
-      <c r="M19">
-        <v>43</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L20">
-        <v>14</v>
-      </c>
-      <c r="M20">
-        <v>14</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21">
-        <v>0.7948717948717948</v>
-      </c>
-      <c r="L21">
-        <v>31</v>
-      </c>
-      <c r="M21">
-        <v>31</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L22">
-        <v>46</v>
-      </c>
-      <c r="M22">
-        <v>46</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23">
-        <v>0.7887323943661971</v>
-      </c>
-      <c r="L23">
-        <v>168</v>
-      </c>
-      <c r="M23">
-        <v>168</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24">
-        <v>0.7878787878787878</v>
-      </c>
-      <c r="L24">
-        <v>26</v>
-      </c>
       <c r="M24">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1586,226 +1475,226 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>0.75</v>
+      </c>
+      <c r="L25">
+        <v>21</v>
+      </c>
+      <c r="M25">
+        <v>21</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>0.75</v>
+      </c>
+      <c r="L26">
+        <v>21</v>
+      </c>
+      <c r="M26">
+        <v>21</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L27">
+        <v>47</v>
+      </c>
+      <c r="M27">
+        <v>47</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28">
+        <v>0.74</v>
+      </c>
+      <c r="L28">
+        <v>37</v>
+      </c>
+      <c r="M28">
+        <v>37</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29">
+        <v>0.7352941176470589</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K25">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="L25">
+      <c r="K30">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="L30">
+        <v>33</v>
+      </c>
+      <c r="M30">
+        <v>33</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>0.6814621409921671</v>
+      </c>
+      <c r="L31">
+        <v>261</v>
+      </c>
+      <c r="M31">
+        <v>261</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L32">
+        <v>22</v>
+      </c>
+      <c r="M32">
+        <v>22</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>11</v>
-      </c>
-      <c r="M25">
-        <v>11</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L27">
-        <v>10</v>
-      </c>
-      <c r="M27">
-        <v>10</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28">
-        <v>0.7671232876712328</v>
-      </c>
-      <c r="L28">
-        <v>56</v>
-      </c>
-      <c r="M28">
-        <v>56</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29">
-        <v>0.76</v>
-      </c>
-      <c r="L29">
-        <v>19</v>
-      </c>
-      <c r="M29">
-        <v>19</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="L30">
-        <v>14</v>
-      </c>
-      <c r="M30">
-        <v>14</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L31">
-        <v>12</v>
-      </c>
-      <c r="M31">
-        <v>12</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32">
-        <v>0.7</v>
-      </c>
-      <c r="L32">
-        <v>14</v>
-      </c>
-      <c r="M32">
-        <v>14</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.6956521739130435</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L33">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M33">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1817,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.6805555555555556</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L34">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1843,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.6666666666666666</v>
+        <v>0.6474576271186441</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1869,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.6511627906976745</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L36">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1895,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.6153846153846154</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1921,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.6071428571428571</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1947,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K39">
         <v>0.6</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1973,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.5909090909090909</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1999,21 +1888,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.5526315789473685</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2025,21 +1914,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.55</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="L42">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2051,21 +1940,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.5142857142857142</v>
+        <v>0.525</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2077,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.484375</v>
       </c>
       <c r="L44">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2103,21 +1992,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.3783783783783784</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2129,21 +2018,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.375</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L46">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2155,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.2222222222222222</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L47">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2181,21 +2070,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.02631578947368421</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L48">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2207,47 +2096,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>444</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.006876790830945559</v>
+        <v>0.1982758620689655</v>
       </c>
       <c r="L49">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N49">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>1733</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K50">
-        <v>0.006033182503770739</v>
+        <v>0.02796420581655481</v>
       </c>
       <c r="L50">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2259,33 +2148,241 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>1977</v>
+        <v>869</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51">
+        <v>0.02583333333333333</v>
+      </c>
+      <c r="L51">
+        <v>31</v>
+      </c>
+      <c r="M51">
+        <v>31</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52">
+        <v>0.01514531313958248</v>
+      </c>
+      <c r="L52">
+        <v>37</v>
+      </c>
+      <c r="M52">
+        <v>39</v>
+      </c>
+      <c r="N52">
+        <v>0.95</v>
+      </c>
+      <c r="O52">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K53">
+        <v>0.01348314606741573</v>
+      </c>
+      <c r="L53">
+        <v>36</v>
+      </c>
+      <c r="M53">
+        <v>39</v>
+      </c>
+      <c r="N53">
+        <v>0.92</v>
+      </c>
+      <c r="O53">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K54">
+        <v>0.01074766355140187</v>
+      </c>
+      <c r="L54">
+        <v>23</v>
+      </c>
+      <c r="M54">
+        <v>26</v>
+      </c>
+      <c r="N54">
+        <v>0.88</v>
+      </c>
+      <c r="O54">
+        <v>0.12</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K55">
+        <v>0.009017341040462428</v>
+      </c>
+      <c r="L55">
+        <v>39</v>
+      </c>
+      <c r="M55">
+        <v>42</v>
+      </c>
+      <c r="N55">
+        <v>0.93</v>
+      </c>
+      <c r="O55">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K51">
-        <v>0.005744125326370757</v>
-      </c>
-      <c r="L51">
-        <v>11</v>
-      </c>
-      <c r="M51">
-        <v>12</v>
-      </c>
-      <c r="N51">
-        <v>0.92</v>
-      </c>
-      <c r="O51">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>1904</v>
+      <c r="K56">
+        <v>0.008695652173913044</v>
+      </c>
+      <c r="L56">
+        <v>27</v>
+      </c>
+      <c r="M56">
+        <v>29</v>
+      </c>
+      <c r="N56">
+        <v>0.93</v>
+      </c>
+      <c r="O56">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K57">
+        <v>0.007211538461538462</v>
+      </c>
+      <c r="L57">
+        <v>36</v>
+      </c>
+      <c r="M57">
+        <v>40</v>
+      </c>
+      <c r="N57">
+        <v>0.9</v>
+      </c>
+      <c r="O57">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K58">
+        <v>0.006779004454774356</v>
+      </c>
+      <c r="L58">
+        <v>35</v>
+      </c>
+      <c r="M58">
+        <v>37</v>
+      </c>
+      <c r="N58">
+        <v>0.95</v>
+      </c>
+      <c r="O58">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K59">
+        <v>0.005939356048765239</v>
+      </c>
+      <c r="L59">
+        <v>19</v>
+      </c>
+      <c r="M59">
+        <v>21</v>
+      </c>
+      <c r="N59">
+        <v>0.9</v>
+      </c>
+      <c r="O59">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3180</v>
       </c>
     </row>
   </sheetData>
